--- a/data/trans_orig/IP19C01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19C01-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABED68DC-6E68-49EE-B047-C7045C56A335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAB54EB4-52F2-4495-AD8E-EEDEBE4B0C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8580C7A1-152C-4028-A577-5FA24E79FAD0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{572875BB-3CCF-44BB-9DF4-2CE4A97F4DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,28 +77,28 @@
     <t>70,54%</t>
   </si>
   <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
   </si>
   <si>
     <t>64,67%</t>
   </si>
   <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
   </si>
   <si>
     <t>67,47%</t>
   </si>
   <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>29,46%</t>
   </si>
   <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
   </si>
   <si>
     <t>35,33%</t>
   </si>
   <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
   </si>
   <si>
     <t>32,53%</t>
   </si>
   <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>70,92%</t>
   </si>
   <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>63,15%</t>
   </si>
   <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
   </si>
   <si>
     <t>67,17%</t>
   </si>
   <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
   </si>
   <si>
     <t>29,08%</t>
   </si>
   <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
   </si>
   <si>
     <t>36,85%</t>
   </si>
   <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
   </si>
   <si>
     <t>32,83%</t>
   </si>
   <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>73,45%</t>
   </si>
   <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
   </si>
   <si>
     <t>76,23%</t>
   </si>
   <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
   </si>
   <si>
     <t>74,87%</t>
   </si>
   <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
   </si>
   <si>
     <t>26,55%</t>
   </si>
   <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
   </si>
   <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
   </si>
   <si>
     <t>25,13%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
   </si>
   <si>
     <t>66,17%</t>
   </si>
   <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
   </si>
   <si>
     <t>68,82%</t>
   </si>
   <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
   </si>
   <si>
     <t>33,83%</t>
   </si>
   <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
   </si>
   <si>
     <t>31,18%</t>
   </si>
   <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -311,643 +311,643 @@
     <t>74,17%</t>
   </si>
   <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>73,75%</t>
   </si>
   <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
   </si>
   <si>
     <t>73,95%</t>
   </si>
   <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>25,83%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
   </si>
   <si>
     <t>26,25%</t>
   </si>
   <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
   </si>
   <si>
     <t>26,05%</t>
   </si>
   <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
   </si>
   <si>
     <t>73,46%</t>
   </si>
   <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
   </si>
   <si>
     <t>69,44%</t>
   </si>
   <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
   </si>
   <si>
     <t>71,54%</t>
   </si>
   <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
   </si>
   <si>
     <t>26,54%</t>
   </si>
   <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
   </si>
   <si>
     <t>30,56%</t>
   </si>
   <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
   </si>
   <si>
     <t>28,46%</t>
   </si>
   <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
   </si>
   <si>
     <t>84,33%</t>
   </si>
   <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
   </si>
   <si>
     <t>78,22%</t>
   </si>
   <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
   <si>
     <t>81,21%</t>
   </si>
   <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
   </si>
   <si>
     <t>15,67%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
   </si>
   <si>
     <t>18,79%</t>
   </si>
   <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
   </si>
   <si>
     <t>75,98%</t>
   </si>
   <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
   </si>
   <si>
     <t>72,13%</t>
   </si>
   <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
   </si>
   <si>
     <t>74,08%</t>
   </si>
   <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
   </si>
   <si>
     <t>24,02%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
   </si>
   <si>
     <t>25,92%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2015 (Tasa respuesta: 49,15%)</t>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2016 (Tasa respuesta: 49,15%)</t>
   </si>
   <si>
     <t>69,48%</t>
   </si>
   <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
   </si>
   <si>
     <t>63,32%</t>
   </si>
   <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
   </si>
   <si>
     <t>66,74%</t>
   </si>
   <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
   </si>
   <si>
     <t>30,52%</t>
   </si>
   <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
   </si>
   <si>
     <t>36,68%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
   </si>
   <si>
     <t>78,32%</t>
   </si>
   <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
   </si>
   <si>
     <t>72,71%</t>
   </si>
   <si>
-    <t>68,06%</t>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
   </si>
   <si>
     <t>75,53%</t>
   </si>
   <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>31,94%</t>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
   </si>
   <si>
     <t>24,47%</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
   </si>
   <si>
     <t>71,05%</t>
   </si>
   <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
   </si>
   <si>
     <t>74,9%</t>
   </si>
   <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
     <t>68,99%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
   </si>
   <si>
     <t>31,01%</t>
   </si>
   <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>12,98%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
   </si>
   <si>
     <t>82,54%</t>
   </si>
   <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
   </si>
   <si>
     <t>81,98%</t>
   </si>
   <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
   </si>
   <si>
     <t>82,28%</t>
   </si>
   <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>17,46%</t>
   </si>
   <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
   </si>
   <si>
     <t>18,02%</t>
   </si>
   <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
   </si>
   <si>
     <t>17,72%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16E34F2-584F-469F-904B-5708F1FE0AA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646998BC-4CAD-4A39-A21C-DE33367F1F38}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2110,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB3C860-3758-4629-8233-9B006294D095}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232B8F0A-B7FB-462C-87BD-C521B5EF2993}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2622,7 +2622,7 @@
         <v>44</v>
       </c>
       <c r="N11" s="7">
-        <v>31498</v>
+        <v>31497</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>140</v>
@@ -2673,7 +2673,7 @@
         <v>238</v>
       </c>
       <c r="N12" s="7">
-        <v>167674</v>
+        <v>167673</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2861,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B345E33-FAFF-4867-BD19-98EAA915D646}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4837D627-05AB-44AD-A51B-DEEAD3D0DF0B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3161,7 +3161,7 @@
         <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>539</v>
@@ -3170,13 +3170,13 @@
         <v>383996</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3191,13 @@
         <v>55266</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>105</v>
@@ -3206,13 +3206,13 @@
         <v>69171</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>183</v>
@@ -3221,13 +3221,13 @@
         <v>124437</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3295,13 @@
         <v>62306</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -3310,13 +3310,13 @@
         <v>69686</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>185</v>
@@ -3325,13 +3325,13 @@
         <v>131991</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3346,13 @@
         <v>25392</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -3361,13 +3361,13 @@
         <v>18832</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -3376,13 +3376,13 @@
         <v>44225</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3450,13 @@
         <v>281974</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>386</v>
@@ -3465,13 +3465,13 @@
         <v>268568</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>774</v>
@@ -3480,10 +3480,10 @@
         <v>550541</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>222</v>
@@ -3531,13 +3531,13 @@
         <v>185884</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93113334-245E-43C9-8477-4884E6862109}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3ACE6E-DD45-42B0-946C-1D27B2A74E6D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3736,13 @@
         <v>20777</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -3751,13 +3751,13 @@
         <v>23097</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -3766,13 +3766,13 @@
         <v>43874</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3787,13 @@
         <v>3652</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -3802,13 +3802,13 @@
         <v>6042</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3817,13 +3817,13 @@
         <v>9694</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3891,13 @@
         <v>249689</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>311</v>
@@ -3906,13 +3906,13 @@
         <v>226078</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>612</v>
@@ -3921,13 +3921,13 @@
         <v>475768</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3942,13 @@
         <v>61042</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>56</v>
@@ -3957,13 +3957,13 @@
         <v>42371</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>127</v>
@@ -3972,13 +3972,13 @@
         <v>103413</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4046,13 @@
         <v>113175</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>119</v>
@@ -4061,13 +4061,13 @@
         <v>78780</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>265</v>
@@ -4076,13 +4076,13 @@
         <v>191955</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4097,13 @@
         <v>16468</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -4112,13 +4112,13 @@
         <v>23655</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -4127,13 +4127,13 @@
         <v>40123</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP19C01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19C01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAB54EB4-52F2-4495-AD8E-EEDEBE4B0C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C21313-6C6C-476F-8922-A54EDFD3F348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{572875BB-3CCF-44BB-9DF4-2CE4A97F4DE0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B85DAB60-9D39-4C28-92A8-3EF00929BB2D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Menores según su última visita al dentista fue por revisión o chequeo en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
     <t>70,54%</t>
   </si>
   <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
   </si>
   <si>
     <t>67,47%</t>
   </si>
   <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
     <t>29,46%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
   </si>
   <si>
     <t>32,53%</t>
   </si>
   <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,817 +137,811 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
     <t>70,92%</t>
   </si>
   <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
   </si>
   <si>
     <t>67,17%</t>
   </si>
   <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
   </si>
   <si>
     <t>29,08%</t>
   </si>
   <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
   </si>
   <si>
     <t>32,83%</t>
   </si>
   <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
     <t>73,45%</t>
   </si>
   <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
   </si>
   <si>
     <t>74,87%</t>
   </si>
   <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
   </si>
   <si>
     <t>26,55%</t>
   </si>
   <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
   </si>
   <si>
     <t>25,13%</t>
   </si>
   <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>67,04%</t>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2012 (Tasa respuesta: 49,21%)</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2016 (Tasa respuesta: 49,15%)</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
   </si>
   <si>
     <t>74,76%</t>
   </si>
   <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
   </si>
   <si>
     <t>25,24%</t>
   </si>
   <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2012 (Tasa respuesta: 49,21%)</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2016 (Tasa respuesta: 49,15%)</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
+    <t>22,64%</t>
   </si>
   <si>
     <t>27,91%</t>
   </si>
   <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
     <t>Menores según su última visita al dentista fue por revisión o chequeo en 2023 (Tasa respuesta: 58,54%)</t>
   </si>
   <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646998BC-4CAD-4A39-A21C-DE33367F1F38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31643E73-BC2E-4932-B875-9472DF78BBB4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1480,7 +1474,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="7">
-        <v>30256</v>
+        <v>30345</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1495,7 +1489,7 @@
         <v>45</v>
       </c>
       <c r="I4" s="7">
-        <v>30345</v>
+        <v>30256</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1528,10 +1522,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>12635</v>
+        <v>16581</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1543,10 +1537,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>16581</v>
+        <v>12635</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1579,25 +1573,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>70</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46926</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>64</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>42891</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>70</v>
-      </c>
-      <c r="I6" s="7">
-        <v>46926</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1632,10 +1626,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="D7" s="7">
-        <v>174257</v>
+        <v>144179</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1647,10 +1641,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="I7" s="7">
-        <v>144179</v>
+        <v>174257</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1683,10 +1677,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D8" s="7">
-        <v>71466</v>
+        <v>84143</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1698,10 +1692,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="I8" s="7">
-        <v>84143</v>
+        <v>71466</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1734,25 +1728,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>343</v>
+      </c>
+      <c r="D9" s="7">
+        <v>228322</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>372</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>245723</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>343</v>
-      </c>
-      <c r="I9" s="7">
-        <v>228322</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1787,10 +1781,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D10" s="7">
-        <v>53707</v>
+        <v>57694</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1802,10 +1796,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I10" s="7">
-        <v>57694</v>
+        <v>53707</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1838,10 +1832,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>19410</v>
+        <v>17989</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1853,10 +1847,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I11" s="7">
-        <v>17989</v>
+        <v>19410</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1892,7 +1886,7 @@
         <v>109</v>
       </c>
       <c r="D12" s="7">
-        <v>73117</v>
+        <v>75683</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1907,7 +1901,7 @@
         <v>109</v>
       </c>
       <c r="I12" s="7">
-        <v>75683</v>
+        <v>73117</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1942,10 +1936,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="D13" s="7">
-        <v>258220</v>
+        <v>232218</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1957,10 +1951,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="I13" s="7">
-        <v>232218</v>
+        <v>258220</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1993,10 +1987,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D14" s="7">
-        <v>103511</v>
+        <v>118712</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2008,10 +2002,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="I14" s="7">
-        <v>118712</v>
+        <v>103511</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2044,25 +2038,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>522</v>
+      </c>
+      <c r="D15" s="7">
+        <v>350930</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>545</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>361731</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>522</v>
-      </c>
-      <c r="I15" s="7">
-        <v>350930</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232B8F0A-B7FB-462C-87BD-C521B5EF2993}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5593CD-0AE8-4525-BD4E-4A66F05F3B27}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2228,10 +2222,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7">
-        <v>31866</v>
+        <v>35372</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -2243,10 +2237,10 @@
         <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I4" s="7">
-        <v>35372</v>
+        <v>31866</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2270,7 +2264,7 @@
         <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,34 +2273,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7">
+        <v>12592</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="7">
         <v>16</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>11097</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="7">
-        <v>19</v>
-      </c>
-      <c r="I5" s="7">
-        <v>12592</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>35</v>
@@ -2315,13 +2309,13 @@
         <v>23689</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,25 +2324,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>47964</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>59</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>42963</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>69</v>
-      </c>
-      <c r="I6" s="7">
-        <v>47964</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2383,34 +2377,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>218</v>
+      </c>
+      <c r="D7" s="7">
+        <v>154504</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="7">
         <v>255</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>178006</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="7">
-        <v>218</v>
-      </c>
-      <c r="I7" s="7">
-        <v>154504</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>473</v>
@@ -2419,13 +2413,13 @@
         <v>332510</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,34 +2428,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>100</v>
+      </c>
+      <c r="D8" s="7">
+        <v>68005</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="7">
         <v>94</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>64302</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="7">
-        <v>100</v>
-      </c>
-      <c r="I8" s="7">
-        <v>68005</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>194</v>
@@ -2470,13 +2464,13 @@
         <v>132307</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,25 +2479,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>318</v>
+      </c>
+      <c r="D9" s="7">
+        <v>222509</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>349</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>242308</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>318</v>
-      </c>
-      <c r="I9" s="7">
-        <v>222509</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2538,34 +2532,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>95</v>
+      </c>
+      <c r="D10" s="7">
+        <v>66916</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="7">
         <v>99</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>69259</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="7">
-        <v>95</v>
-      </c>
-      <c r="I10" s="7">
-        <v>66916</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>194</v>
@@ -2574,13 +2568,13 @@
         <v>136176</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,34 +2583,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7">
+        <v>18632</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="7">
         <v>19</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>12866</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H11" s="7">
-        <v>25</v>
-      </c>
-      <c r="I11" s="7">
-        <v>18632</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
@@ -2625,13 +2619,13 @@
         <v>31497</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,25 +2634,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>120</v>
+      </c>
+      <c r="D12" s="7">
+        <v>85548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>118</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>82125</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>120</v>
-      </c>
-      <c r="I12" s="7">
-        <v>85548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2693,34 +2687,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>363</v>
+      </c>
+      <c r="D13" s="7">
+        <v>256792</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="7">
         <v>397</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>279132</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="7">
-        <v>363</v>
-      </c>
-      <c r="I13" s="7">
-        <v>256792</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>760</v>
@@ -2729,13 +2723,13 @@
         <v>535924</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,34 +2738,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>144</v>
+      </c>
+      <c r="D14" s="7">
+        <v>99229</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="7">
         <v>129</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>88265</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H14" s="7">
-        <v>144</v>
-      </c>
-      <c r="I14" s="7">
-        <v>99229</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>273</v>
@@ -2780,13 +2774,13 @@
         <v>187494</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,25 +2789,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>507</v>
+      </c>
+      <c r="D15" s="7">
+        <v>356021</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>526</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>367397</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>507</v>
-      </c>
-      <c r="I15" s="7">
-        <v>356021</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2861,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4837D627-05AB-44AD-A51B-DEEAD3D0DF0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31B2049-8A86-4D6C-B849-6A226163C811}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2979,34 +2973,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7">
+        <v>14589</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="7">
         <v>28</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>19964</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="7">
-        <v>22</v>
-      </c>
-      <c r="I4" s="7">
-        <v>14589</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -3015,13 +3009,13 @@
         <v>34554</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,34 +3024,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8453</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="7">
         <v>13</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>8770</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="H5" s="7">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8453</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -3066,13 +3060,13 @@
         <v>17223</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,25 +3075,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7">
+        <v>23042</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>41</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>28734</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>34</v>
-      </c>
-      <c r="I6" s="7">
-        <v>23042</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3134,34 +3128,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>266</v>
+      </c>
+      <c r="D7" s="7">
+        <v>184292</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="7">
         <v>273</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>199704</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="7">
-        <v>266</v>
-      </c>
-      <c r="I7" s="7">
-        <v>184292</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>539</v>
@@ -3170,13 +3164,13 @@
         <v>383996</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,34 +3179,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>105</v>
+      </c>
+      <c r="D8" s="7">
+        <v>69171</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="7">
         <v>78</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>55266</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H8" s="7">
-        <v>105</v>
-      </c>
-      <c r="I8" s="7">
-        <v>69171</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>183</v>
@@ -3221,13 +3215,13 @@
         <v>124437</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,25 +3230,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>371</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253463</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>351</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>254970</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>371</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253463</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3289,34 +3283,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>98</v>
+      </c>
+      <c r="D10" s="7">
+        <v>69686</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="7">
         <v>87</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>62306</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H10" s="7">
-        <v>98</v>
-      </c>
-      <c r="I10" s="7">
-        <v>69686</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>185</v>
@@ -3325,13 +3319,13 @@
         <v>131991</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,34 +3334,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7">
+        <v>18832</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" s="7">
         <v>36</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>25392</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H11" s="7">
-        <v>27</v>
-      </c>
-      <c r="I11" s="7">
-        <v>18832</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -3376,13 +3370,13 @@
         <v>44225</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,25 +3385,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>125</v>
+      </c>
+      <c r="D12" s="7">
+        <v>88518</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>123</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>87698</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>125</v>
-      </c>
-      <c r="I12" s="7">
-        <v>88518</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3444,34 +3438,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>386</v>
+      </c>
+      <c r="D13" s="7">
+        <v>268568</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="7">
         <v>388</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>281974</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H13" s="7">
-        <v>386</v>
-      </c>
-      <c r="I13" s="7">
-        <v>268568</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>774</v>
@@ -3480,13 +3474,13 @@
         <v>550541</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,34 +3489,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>144</v>
+      </c>
+      <c r="D14" s="7">
+        <v>96456</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="7">
         <v>127</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>89428</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H14" s="7">
-        <v>144</v>
-      </c>
-      <c r="I14" s="7">
-        <v>96456</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>271</v>
@@ -3531,13 +3525,13 @@
         <v>185884</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,25 +3540,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>530</v>
+      </c>
+      <c r="D15" s="7">
+        <v>365024</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>515</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>371402</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>530</v>
-      </c>
-      <c r="I15" s="7">
-        <v>365024</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3612,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3ACE6E-DD45-42B0-946C-1D27B2A74E6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1D3F3B-6F95-4549-9823-1026A8A2FE7A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3730,10 +3724,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>20777</v>
+        <v>22645</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>231</v>
@@ -3745,10 +3739,10 @@
         <v>233</v>
       </c>
       <c r="H4" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>23097</v>
+        <v>21672</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>234</v>
@@ -3763,7 +3757,7 @@
         <v>56</v>
       </c>
       <c r="N4" s="7">
-        <v>43874</v>
+        <v>44317</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>237</v>
@@ -3781,10 +3775,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>3652</v>
+        <v>7085</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>240</v>
@@ -3796,10 +3790,10 @@
         <v>242</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>6042</v>
+        <v>3812</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>243</v>
@@ -3814,7 +3808,7 @@
         <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>9694</v>
+        <v>10897</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>246</v>
@@ -3832,25 +3826,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29730</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>31</v>
       </c>
-      <c r="D6" s="7">
-        <v>24429</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>37</v>
-      </c>
       <c r="I6" s="7">
-        <v>29139</v>
+        <v>25484</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3865,7 +3859,7 @@
         <v>68</v>
       </c>
       <c r="N6" s="7">
-        <v>53568</v>
+        <v>55214</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3885,10 +3879,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D7" s="7">
-        <v>249689</v>
+        <v>220107</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>249</v>
@@ -3900,10 +3894,10 @@
         <v>251</v>
       </c>
       <c r="H7" s="7">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="I7" s="7">
-        <v>226078</v>
+        <v>258685</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>252</v>
@@ -3918,7 +3912,7 @@
         <v>612</v>
       </c>
       <c r="N7" s="7">
-        <v>475768</v>
+        <v>478791</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>255</v>
@@ -3936,10 +3930,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D8" s="7">
-        <v>61042</v>
+        <v>41720</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>258</v>
@@ -3951,10 +3945,10 @@
         <v>260</v>
       </c>
       <c r="H8" s="7">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="I8" s="7">
-        <v>42371</v>
+        <v>64330</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>261</v>
@@ -3969,7 +3963,7 @@
         <v>127</v>
       </c>
       <c r="N8" s="7">
-        <v>103413</v>
+        <v>106051</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>264</v>
@@ -3987,25 +3981,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>367</v>
+      </c>
+      <c r="D9" s="7">
+        <v>261827</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>372</v>
       </c>
-      <c r="D9" s="7">
-        <v>310731</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>367</v>
-      </c>
       <c r="I9" s="7">
-        <v>268449</v>
+        <v>323015</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4020,7 +4014,7 @@
         <v>739</v>
       </c>
       <c r="N9" s="7">
-        <v>579181</v>
+        <v>584842</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4040,10 +4034,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="D10" s="7">
-        <v>113175</v>
+        <v>77115</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>267</v>
@@ -4055,10 +4049,10 @@
         <v>269</v>
       </c>
       <c r="H10" s="7">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="I10" s="7">
-        <v>78780</v>
+        <v>118915</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>270</v>
@@ -4073,7 +4067,7 @@
         <v>265</v>
       </c>
       <c r="N10" s="7">
-        <v>191955</v>
+        <v>196029</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>273</v>
@@ -4091,10 +4085,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>16468</v>
+        <v>22961</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>276</v>
@@ -4106,10 +4100,10 @@
         <v>278</v>
       </c>
       <c r="H11" s="7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>23655</v>
+        <v>17030</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>279</v>
@@ -4124,7 +4118,7 @@
         <v>52</v>
       </c>
       <c r="N11" s="7">
-        <v>40123</v>
+        <v>39992</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>282</v>
@@ -4142,25 +4136,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>150</v>
+      </c>
+      <c r="D12" s="7">
+        <v>100076</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>167</v>
       </c>
-      <c r="D12" s="7">
-        <v>129643</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>150</v>
-      </c>
       <c r="I12" s="7">
-        <v>102435</v>
+        <v>135945</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4175,7 +4169,7 @@
         <v>317</v>
       </c>
       <c r="N12" s="7">
-        <v>232078</v>
+        <v>236021</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4195,10 +4189,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D13" s="7">
-        <v>383640</v>
+        <v>319866</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>285</v>
@@ -4207,37 +4201,37 @@
         <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="7">
+        <v>473</v>
+      </c>
+      <c r="I13" s="7">
+        <v>399272</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="H13" s="7">
-        <v>460</v>
-      </c>
-      <c r="I13" s="7">
-        <v>327957</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>933</v>
       </c>
       <c r="N13" s="7">
-        <v>711597</v>
+        <v>719137</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,49 +4240,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>94</v>
+      </c>
+      <c r="D14" s="7">
+        <v>71767</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H14" s="7">
         <v>97</v>
       </c>
-      <c r="D14" s="7">
-        <v>81163</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>85172</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H14" s="7">
-        <v>94</v>
-      </c>
-      <c r="I14" s="7">
-        <v>72067</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>191</v>
       </c>
       <c r="N14" s="7">
-        <v>153229</v>
+        <v>156939</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,25 +4291,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>554</v>
+      </c>
+      <c r="D15" s="7">
+        <v>391633</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>570</v>
       </c>
-      <c r="D15" s="7">
-        <v>464803</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>554</v>
-      </c>
       <c r="I15" s="7">
-        <v>400024</v>
+        <v>484444</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4330,7 +4324,7 @@
         <v>1124</v>
       </c>
       <c r="N15" s="7">
-        <v>864826</v>
+        <v>876076</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
